--- a/biology/Médecine/Henri_Savigny/Henri_Savigny.xlsx
+++ b/biology/Médecine/Henri_Savigny/Henri_Savigny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Baptiste Henri Savigny, né le 10 avril 1793, mort le 27 janvier 1843, est chirurgien et médecin à bord de La Méduse. Lors du naufrage du navire (2 juillet 1816), il est l'un des 3 officiers volontaires pour prendre place sur le radeau parmi 152 naufragés. 
 Il est l'un des 15 survivants et témoigne dans un rapport au Ministère de la Marine des atrocités commises lors de la dérive du radeau, et notamment d'actes d'anthropophagie. Il précise les détails de la tragédie à Géricault, avant que celui-ci ne peigne son célèbre Radeau de la Méduse.
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
